--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>date</t>
   </si>
@@ -106,6 +106,51 @@
   </si>
   <si>
     <t>Effective statistician podcast on driving statistical innovation</t>
+  </si>
+  <si>
+    <t>https://twitter.com/numbersman77/status/1325828499085602818</t>
+  </si>
+  <si>
+    <t>Posts on twitter</t>
+  </si>
+  <si>
+    <t>Why does pharma industry announce top-line trial results in press releases before publishing a scientific paper?</t>
+  </si>
+  <si>
+    <t>Why do we run group-sequential trials in drug development?</t>
+  </si>
+  <si>
+    <t>https://twitter.com/numbersman77/status/1326548973411135490</t>
+  </si>
+  <si>
+    <t>How can we use futility interim analyses (FIA) to mitigate risks in accelerated drug development?</t>
+  </si>
+  <si>
+    <t>https://twitter.com/numbersman77/status/1327299501586075650</t>
+  </si>
+  <si>
+    <t>Stop the abuse: plea for more principled approach to analysis of AEs.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/numbersman77/status/1369704328605351936</t>
+  </si>
+  <si>
+    <t>Event prediction in RCTs w/ T2E endpoint</t>
+  </si>
+  <si>
+    <t>https://twitter.com/numbersman77/status/1391851038727102465</t>
+  </si>
+  <si>
+    <t>Follow-up quantification for time-to-event endpoint: Asking the right questions and make numbers meaningful</t>
+  </si>
+  <si>
+    <t>https://twitter.com/numbersman77/status/1536264526181679106</t>
+  </si>
+  <si>
+    <t>Clinical and Statistical Perspectives on the ICH E9(R1) Estimand Framework Implementation: paper jointly by industry - FDA authors.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/numbersman77/status/1535610871174549506</t>
   </si>
 </sst>
 </file>
@@ -442,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,16 +683,123 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44725</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44265</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:C18">
-    <sortCondition descending="1" ref="A2:A18"/>
+  <sortState ref="A2:D22">
+    <sortCondition ref="B2:B22"/>
+    <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>https://twitter.com/numbersman77/status/1535610871174549506</t>
+  </si>
+  <si>
+    <t>Discussion of JSM session "Recent advances in Bayesian power and probability of success", providing punch lines of my talk on quantitative decision-making</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_supporting-quantitative-decision-making-about-activity-7093541725926760448-Dnqn?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,277 +521,291 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>45119</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45014</v>
+        <v>45082</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -793,11 +813,11 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_supporting-quantitative-decision-making-about-activity-7093541725926760448-Dnqn?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Minimal detectable difference in a trial with time-to-event primary endpoint</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_here-is-a-question-for-anyone-working-on-activity-7094488116748529664-9TYr?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>code/mdd/20230809_mdd.html</t>
   </si>
 </sst>
 </file>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +517,10 @@
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="166.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,292 +533,312 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45143</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45119</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45113</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45112</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45083</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45082</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45014</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>44992</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>44959</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>44930</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>44897</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>44682</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>44601</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>44725</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>44723</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -813,11 +846,11 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D16" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D17" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>date</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>code/mdd/20230809_mdd.html</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-clinicaltrials-oncology-activity-7118305540534874112-MiCU?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Crossover in oncology trials - presentation at FDA / Lungevity statistical forum</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,306 +545,320 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45143</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45119</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45014</v>
+        <v>45082</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -846,13 +866,14 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D17" r:id="rId5"/>
+    <hyperlink ref="D14" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D18" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>date</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Crossover in oncology trials - presentation at FDA / Lungevity statistical forum</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-clinicaltrial-interimanalysis-activity-7118537293337907200-i7ui?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Futility analyses -- they are a strategic tool in drug development and not at all futile!</t>
   </si>
 </sst>
 </file>
@@ -511,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -545,320 +551,334 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45143</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45119</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45014</v>
+        <v>45082</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -866,12 +886,12 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D18" r:id="rId5"/>
-    <hyperlink ref="D2" r:id="rId6"/>
+    <hyperlink ref="D15" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D19" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Futility analyses -- they are a strategic tool in drug development and not at all futile!</t>
+  </si>
+  <si>
+    <t>Why do we do interim analyses in clinical trials?</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_clinicaltrials-drugdevelopment-like-activity-7048390244101943296-xr7j?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,205 +686,219 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -886,14 +906,15 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1"/>
+    <hyperlink ref="D16" r:id="rId1"/>
     <hyperlink ref="D6" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D19" r:id="rId5"/>
+    <hyperlink ref="D20" r:id="rId5"/>
     <hyperlink ref="D3" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>date</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_clinicaltrials-drugdevelopment-like-activity-7048390244101943296-xr7j?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_innovation-biostatistics-estimand-activity-7128840875215855616-WxVA?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Implementation of statistical innovation in a pharmaceutical company</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,348 +563,362 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45143</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45119</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -906,13 +926,13 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D20" r:id="rId5"/>
-    <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D17" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D21" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>date</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Implementation of statistical innovation in a pharmaceutical company</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-causalinference-activity-7169401987397066752-aA2P?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Why and what a non-statistician should know about causal inference</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,362 +569,376 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45143</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45119</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -926,13 +946,13 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D21" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D18" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>date</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Why and what a non-statistician should know about causal inference</t>
+  </si>
+  <si>
+    <t>False negative risk of futility analyses is typically overestimated</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-interimanalysis-trialdesign-activity-7171170319980871680-in91?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://numbersman77.github.io/kasparrufibach/code/futility_fp/20240306_futility_fp.html</t>
   </si>
 </sst>
 </file>
@@ -535,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,376 +578,393 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45143</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45119</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -946,13 +972,13 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D22" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D19" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
+    <hyperlink ref="D11" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>https://numbersman77.github.io/kasparrufibach/code/futility_fp/20240306_futility_fp.html</t>
+  </si>
+  <si>
+    <t>SAVVY overview paper with recommendations on updates of safety guidelines</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-safety-benefitrisk-activity-7202352154823573504-Upwe?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,393 +584,407 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45143</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45119</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -972,13 +992,13 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D10" r:id="rId3"/>
-    <hyperlink ref="D11" r:id="rId4"/>
-    <hyperlink ref="D23" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="D14" r:id="rId7"/>
+    <hyperlink ref="D20" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D24" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D15" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>date</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-safety-benefitrisk-activity-7202352154823573504-Upwe?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Non-proportional hazards in drug development</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-survival-estimand-activity-7213277769428779008-IqOv?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -584,407 +590,421 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45143</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45119</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -992,13 +1012,13 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
-    <hyperlink ref="D24" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7"/>
+    <hyperlink ref="D21" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D12" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D25" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D16" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>date</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-survival-estimand-activity-7213277769428779008-IqOv?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Non-proportional hazards in drug development: Part 2</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-statistics-rct-activity-7216546075749289984-vSK7?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -590,421 +596,435 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45143</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45119</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D22">
@@ -1012,13 +1032,13 @@
     <sortCondition descending="1" ref="A2:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D25" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7"/>
+    <hyperlink ref="D22" r:id="rId1"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D26" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD073CD5-9AE0-4978-8C2D-59E95BDD6037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>date</t>
   </si>
@@ -226,12 +227,18 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-statistics-rct-activity-7216546075749289984-vSK7?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_using-shrinkage-methods-to-estimate-treatment-activity-7219407936295481345-0WdP?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Efficient estimation in subgroups in RCTs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,8 +290,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,14 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -596,449 +603,463 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45482</v>
+        <v>45490</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45143</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45119</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:D22">
-    <sortCondition ref="B2:B22"/>
-    <sortCondition descending="1" ref="A2:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D23">
+    <sortCondition ref="B3:B23"/>
+    <sortCondition descending="1" ref="A3:A23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1"/>
-    <hyperlink ref="D12" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D26" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD073CD5-9AE0-4978-8C2D-59E95BDD6037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33B1FA-87FB-4B98-B81D-9B9AA461E7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,10 +229,10 @@
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-statistics-rct-activity-7216546075749289984-vSK7?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/posts/kasparrufibach_using-shrinkage-methods-to-estimate-treatment-activity-7219407936295481345-0WdP?utm_source=share&amp;utm_medium=member_desktop</t>
-  </si>
-  <si>
     <t>Efficient estimation in subgroups in RCTs</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_rct-biostatistics-drugdevelopment-activity-7219424232336670720-hLhE?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +609,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,8 +1060,9 @@
     <hyperlink ref="D27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33B1FA-87FB-4B98-B81D-9B9AA461E7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719FA729-E0A9-4F3B-BD68-D9E3942061A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>date</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_rct-biostatistics-drugdevelopment-activity-7219424232336670720-hLhE?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Embed investigator- and independently reviewed PFS into the estimand framework</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-estimands-oncology-activity-7226250092066844674-f0U_?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Kaspar to leave Roche</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_today-31st-july-2024-is-my-last-day-at-activity-7224340614119649280-1UOB?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -569,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,464 +615,492 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45490</v>
+        <v>45509</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45482</v>
+        <v>45504</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45473</v>
+        <v>45490</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45443</v>
+        <v>45482</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45357</v>
+        <v>45473</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45352</v>
+        <v>45443</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45240</v>
+        <v>45357</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45212</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>45240</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45147</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45143</v>
+        <v>45211</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45119</v>
+        <v>45147</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45113</v>
+        <v>45143</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45083</v>
+        <v>45113</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45082</v>
+        <v>45112</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45018</v>
+        <v>45083</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45014</v>
+        <v>45082</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44992</v>
+        <v>45018</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44959</v>
+        <v>45014</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44930</v>
+        <v>44992</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44897</v>
+        <v>44959</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44682</v>
+        <v>44930</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44601</v>
+        <v>44897</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44725</v>
+        <v>44682</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44723</v>
+        <v>44601</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44326</v>
+        <v>44725</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44265</v>
+        <v>44723</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44148</v>
+        <v>44326</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44146</v>
+        <v>44265</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44144</v>
+        <v>44148</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D23">
-    <sortCondition ref="B3:B23"/>
-    <sortCondition descending="1" ref="A3:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D25">
+    <sortCondition ref="B5:B25"/>
+    <sortCondition descending="1" ref="A5:A25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D2" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="D25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D29" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719FA729-E0A9-4F3B-BD68-D9E3942061A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF2DDE-8509-4DBB-97AD-713BD1A8CCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>date</t>
   </si>
@@ -245,6 +256,18 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_today-31st-july-2024-is-my-last-day-at-activity-7224340614119649280-1UOB?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Quote from 1984 about historical controls</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_statisticians-and-real-world-data-sicentists-activity-7235016997456007168-1_vN?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Drug developers quiz!</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-drugdevelopment-activity-7236264361198071808-HUsy?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -581,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,492 +638,520 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45509</v>
+        <v>45537</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45504</v>
+        <v>45533</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45490</v>
+        <v>45509</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45482</v>
+        <v>45504</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45473</v>
+        <v>45490</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45443</v>
+        <v>45482</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45357</v>
+        <v>45473</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45352</v>
+        <v>45443</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45240</v>
+        <v>45357</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45212</v>
+        <v>45352</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>45240</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45147</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45143</v>
+        <v>45211</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45119</v>
+        <v>45147</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45113</v>
+        <v>45143</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45083</v>
+        <v>45113</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45082</v>
+        <v>45112</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45018</v>
+        <v>45083</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45014</v>
+        <v>45082</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44992</v>
+        <v>45018</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44959</v>
+        <v>45014</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44930</v>
+        <v>44992</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44897</v>
+        <v>44959</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44682</v>
+        <v>44930</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44601</v>
+        <v>44897</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44725</v>
+        <v>44682</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44723</v>
+        <v>44601</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44326</v>
+        <v>44725</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44265</v>
+        <v>44723</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44148</v>
+        <v>44326</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44146</v>
+        <v>44265</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44144</v>
+        <v>44148</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D25">
-    <sortCondition ref="B5:B25"/>
-    <sortCondition descending="1" ref="A5:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:D27">
+    <sortCondition ref="B7:B27"/>
+    <sortCondition descending="1" ref="A7:A27"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D29" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D31" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D22" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF2DDE-8509-4DBB-97AD-713BD1A8CCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7367924-FF59-49D9-A88B-135601748DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="45" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>date</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-drugdevelopment-activity-7236264361198071808-HUsy?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>What is your intention behind using "intention-to-treat"?</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-drugdevelopment-estimand-activity-7243560426016247808-p_yg?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -604,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,520 +644,534 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45537</v>
+        <v>45557</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45482</v>
+        <v>45490</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45143</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>45119</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
         <v>31</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:D27">
-    <sortCondition ref="B7:B27"/>
-    <sortCondition descending="1" ref="A7:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:D28">
+    <sortCondition ref="B8:B28"/>
+    <sortCondition descending="1" ref="A8:A28"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D31" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D6" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="D28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7367924-FF59-49D9-A88B-135601748DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A2985-D4DF-4BBB-92BC-6FC3E5F7BAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="45" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="45" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>date</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-drugdevelopment-estimand-activity-7243560426016247808-p_yg?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-rct-activity-7246483265480531969-LBbz?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>How to deal with a contaminated analysis set?</t>
   </si>
 </sst>
 </file>
@@ -610,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,534 +650,548 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45557</v>
+        <v>45565</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45537</v>
+        <v>45557</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45482</v>
+        <v>45490</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45147</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45143</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>45119</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>45113</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>45112</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>45083</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>45082</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>45018</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>45014</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>44992</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>44959</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>44930</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>17</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>44897</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>44682</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>44601</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>44725</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>44723</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
         <v>31</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:D28">
-    <sortCondition ref="B8:B28"/>
-    <sortCondition descending="1" ref="A8:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:D29">
+    <sortCondition ref="B9:B29"/>
+    <sortCondition descending="1" ref="A9:A29"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A2985-D4DF-4BBB-92BC-6FC3E5F7BAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7B841-A503-4912-87AB-6F32E8E95EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="45" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>date</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>How to deal with a contaminated analysis set?</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-rct-collaboration-activity-7247509486347677696-5gsF?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://oncoestimand.github.io/trials_interim/trials_interim.html</t>
+  </si>
+  <si>
+    <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses</t>
   </si>
 </sst>
 </file>
@@ -330,11 +339,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -616,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,552 +663,570 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>82</v>
+      <c r="C2" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45557</v>
+        <v>45565</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45537</v>
+        <v>45557</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45482</v>
+        <v>45490</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>45143</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45119</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
         <v>31</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:D29">
-    <sortCondition ref="B9:B29"/>
-    <sortCondition descending="1" ref="A9:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D30">
+    <sortCondition ref="B10:B30"/>
+    <sortCondition descending="1" ref="A10:A30"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D22" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7B841-A503-4912-87AB-6F32E8E95EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D901FAE9-F35A-4035-98CC-149B53ACE930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>date</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/psi-statisticians-in-the-pharmaceutical-industry_joint-psiefspi-causal-inference-sig-webinar-activity-7264223319606849536-K5z3?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Joint PSI/EFSPI Causal Inference SIG Webinar: Opportunities in applying a causal inference framework during the analysis of an RCT</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-causalinference-criticalthinking-activity-7267496265070919681-anzZ?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Table 2 fallacy</t>
   </si>
 </sst>
 </file>
@@ -352,8 +364,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -646,7 +658,7 @@
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,568 +675,596 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45568</v>
+        <v>45623</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>85</v>
+      <c r="C2" t="s">
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45565</v>
+        <v>45584</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45557</v>
+        <v>45568</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>79</v>
+      <c r="C4" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45537</v>
+        <v>45565</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45533</v>
+        <v>45557</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45509</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45504</v>
+        <v>45533</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45490</v>
+        <v>45509</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45482</v>
+        <v>45504</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45473</v>
+        <v>45490</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45443</v>
+        <v>45482</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45357</v>
+        <v>45473</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45352</v>
+        <v>45443</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45240</v>
+        <v>45357</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45212</v>
+        <v>45352</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>45240</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45147</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45143</v>
+        <v>45211</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45119</v>
+        <v>45147</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>23</v>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45113</v>
+        <v>45143</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>28</v>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45083</v>
+        <v>45113</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45082</v>
+        <v>45112</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45018</v>
+        <v>45083</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45014</v>
+        <v>45082</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44992</v>
+        <v>45018</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44959</v>
+        <v>45014</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44930</v>
+        <v>44992</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44897</v>
+        <v>44959</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44682</v>
+        <v>44930</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44601</v>
+        <v>44897</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44725</v>
+        <v>44682</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44723</v>
+        <v>44601</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44326</v>
+        <v>44725</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44265</v>
+        <v>44723</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44148</v>
+        <v>44326</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44146</v>
+        <v>44265</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44144</v>
+        <v>44148</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D30">
-    <sortCondition ref="B10:B30"/>
-    <sortCondition descending="1" ref="A10:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:D32">
+    <sortCondition ref="B12:B32"/>
+    <sortCondition descending="1" ref="A12:A32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D22" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
-    <hyperlink ref="E2" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D901FAE9-F35A-4035-98CC-149B53ACE930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617AA1B4-E90A-4C5C-9880-1E55828D23DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>date</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>Table 2 fallacy</t>
+  </si>
+  <si>
+    <t>Talk about how to talk: my learnings and experiences for presenting as a statistician</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_statisticians-or-quantitative-scientists-activity-7290457598770769920-9eMh?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -643,22 +649,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="166.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="166.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,598 +681,613 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>45623</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>45584</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>45568</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>45565</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>45557</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>45537</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>45533</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>45509</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>45504</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>45490</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>45482</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>45473</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>45443</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>45357</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>45352</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>45240</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>45212</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>45211</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>45147</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>45143</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
         <v>45119</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>45113</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>45112</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>45083</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>45082</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>45018</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>45014</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>44992</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>44959</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>44930</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>44897</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>44682</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>44601</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>44725</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>44723</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
         <v>31</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:D32">
-    <sortCondition ref="B12:B32"/>
-    <sortCondition descending="1" ref="A12:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:D33">
+    <sortCondition ref="B13:B33"/>
+    <sortCondition descending="1" ref="A13:A33"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
-    <hyperlink ref="E4" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617AA1B4-E90A-4C5C-9880-1E55828D23DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F32B38-E5DE-4A44-9BB8-A70C498E6902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>date</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_statisticians-or-quantitative-scientists-activity-7290457598770769920-9eMh?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_i-am-not-known-for-shying-away-from-a-good-activity-7293928656089874432-HL6G?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
+  </si>
+  <si>
+    <t>Hypothesis test, significance test, and confidence intervals</t>
   </si>
 </sst>
 </file>
@@ -649,22 +655,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="166.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="166.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,613 +687,628 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45696</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45686</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45623</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45584</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45568</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45565</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45557</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45537</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45533</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45509</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45504</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>45490</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>45482</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>45473</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45443</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>45357</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45352</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>45240</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>45212</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>45211</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>45147</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>45143</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>45119</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>45113</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>45112</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>45083</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>45082</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>45018</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>45014</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>44992</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>44959</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>44930</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>44897</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>44682</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>44601</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
         <v>20</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>44725</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>44723</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:D33">
-    <sortCondition ref="B13:B33"/>
-    <sortCondition descending="1" ref="A13:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:D34">
+    <sortCondition ref="B14:B34"/>
+    <sortCondition descending="1" ref="A14:A34"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
-    <hyperlink ref="E5" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
-    <hyperlink ref="D2" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
+    <hyperlink ref="D34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F32B38-E5DE-4A44-9BB8-A70C498E6902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1466DB-31BD-4654-B5C7-94763E5A4E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>date</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>Hypothesis test, significance test, and confidence intervals</t>
+  </si>
+  <si>
+    <t>Why are we not just using AI to predict probability of success for a clinical trial?</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-activity-7304570515048845312-szCG?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
   </si>
 </sst>
 </file>
@@ -655,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,624 +695,638 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45696</v>
+        <v>45725</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45686</v>
+        <v>45696</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45623</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45584</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45568</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45565</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45557</v>
+        <v>45565</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45537</v>
+        <v>45557</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45482</v>
+        <v>45490</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>45143</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>45119</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
         <v>31</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:D34">
-    <sortCondition ref="B14:B34"/>
-    <sortCondition descending="1" ref="A14:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:D35">
+    <sortCondition ref="B15:B35"/>
+    <sortCondition descending="1" ref="A15:A35"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
-    <hyperlink ref="D2" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
+    <hyperlink ref="D35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1466DB-31BD-4654-B5C7-94763E5A4E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBB9CD2-FFD2-48DE-AF1E-6B3B9321973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>date</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-activity-7304570515048845312-szCG?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
+  </si>
+  <si>
+    <t>You cannot generate data out of nothing! On synthetic data and digital twins</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-ai-digitaltwins-activity-7325784869295321088-cm20?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
   </si>
 </sst>
 </file>
@@ -661,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,638 +701,652 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45725</v>
+        <v>45784</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45696</v>
+        <v>45725</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45686</v>
+        <v>45696</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45623</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45584</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45568</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45565</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45557</v>
+        <v>45565</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45537</v>
+        <v>45557</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45482</v>
+        <v>45490</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>45143</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>45119</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
         <v>31</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:D35">
-    <sortCondition ref="B15:B35"/>
-    <sortCondition descending="1" ref="A15:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D36">
+    <sortCondition ref="B16:B36"/>
+    <sortCondition descending="1" ref="A16:A36"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
-    <hyperlink ref="E7" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
-    <hyperlink ref="D4" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
-    <hyperlink ref="D3" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D27" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
+    <hyperlink ref="D4" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>

--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBB9CD2-FFD2-48DE-AF1E-6B3B9321973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08615F6-31A4-45F9-8400-0673E4A87108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>date</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-ai-digitaltwins-activity-7325784869295321088-cm20?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
+  </si>
+  <si>
+    <t>https://numbersman77.github.io/kasparrufibach/code/synthetic/synthetic.html</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +681,7 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="166.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="223" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,6 +714,9 @@
       </c>
       <c r="D2" t="s">
         <v>97</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,8 +1353,9 @@
     <hyperlink ref="E8" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
     <hyperlink ref="D5" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
     <hyperlink ref="D4" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
+    <hyperlink ref="E2" r:id="rId12" xr:uid="{C474B74F-3E03-433F-BC35-18768486A4FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08615F6-31A4-45F9-8400-0673E4A87108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE69C2-DE71-434A-8930-F7884ED15D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
   <si>
     <t>date</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>https://numbersman77.github.io/kasparrufibach/code/synthetic/synthetic.html</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-rct-collaboration-activity-7351595946427707395-05n5?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
+  </si>
+  <si>
+    <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses: paper in Trials</t>
   </si>
 </sst>
 </file>
@@ -670,22 +676,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="223" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,660 +708,678 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>45784</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>45725</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>45696</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>45686</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>45623</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>45584</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>45568</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>45565</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>45557</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>45537</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>45533</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>45509</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>45504</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>45490</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>45482</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>45473</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>45443</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>45357</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>45352</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>45240</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>45212</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>45211</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>45147</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>48</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>45143</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
         <v>45119</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>45113</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>45112</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>45083</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>45082</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>45018</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>45014</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>44992</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>44959</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>44930</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>44897</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>44682</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>44601</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
         <v>20</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>44725</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>44723</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
         <v>31</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D36">
-    <sortCondition ref="B16:B36"/>
-    <sortCondition descending="1" ref="A16:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:D37">
+    <sortCondition ref="B17:B37"/>
+    <sortCondition descending="1" ref="A17:A37"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D27" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
-    <hyperlink ref="E8" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
-    <hyperlink ref="D4" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
-    <hyperlink ref="E2" r:id="rId12" xr:uid="{C474B74F-3E03-433F-BC35-18768486A4FB}"/>
+    <hyperlink ref="D37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
+    <hyperlink ref="E3" r:id="rId12" xr:uid="{C474B74F-3E03-433F-BC35-18768486A4FB}"/>
+    <hyperlink ref="E2" r:id="rId13" xr:uid="{209BE10C-36A4-4475-BDA6-365C34A7A7B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE69C2-DE71-434A-8930-F7884ED15D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B056E9-781C-47E3-A731-FABE573545E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9230" yWindow="1310" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>date</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses: paper in Trials</t>
+  </si>
+  <si>
+    <t>Confirmatory adaptive designs</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-clinicaltrial-activity-7356399592587894784-WvJW?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
   </si>
 </sst>
 </file>
@@ -676,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,676 +716,691 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>45855</v>
+        <v>45868</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>84</v>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>45784</v>
+        <v>45855</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>96</v>
+      <c r="C3" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45725</v>
+        <v>45784</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>45696</v>
+        <v>45725</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>45686</v>
+        <v>45696</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>45623</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>45584</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>45568</v>
+        <v>45584</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>85</v>
+      <c r="C9" t="s">
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>82</v>
+      <c r="C10" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>45557</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>45537</v>
+        <v>45557</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>45482</v>
+        <v>45490</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>45143</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
         <v>45119</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
         <v>31</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
     </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:D37">
-    <sortCondition ref="B17:B37"/>
-    <sortCondition descending="1" ref="A17:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D38">
+    <sortCondition ref="B18:B38"/>
+    <sortCondition descending="1" ref="A18:A38"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D16" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
-    <hyperlink ref="D5" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
-    <hyperlink ref="E3" r:id="rId12" xr:uid="{C474B74F-3E03-433F-BC35-18768486A4FB}"/>
-    <hyperlink ref="E2" r:id="rId13" xr:uid="{209BE10C-36A4-4475-BDA6-365C34A7A7B4}"/>
+    <hyperlink ref="D38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D33" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{C474B74F-3E03-433F-BC35-18768486A4FB}"/>
+    <hyperlink ref="E3" r:id="rId13" xr:uid="{209BE10C-36A4-4475-BDA6-365C34A7A7B4}"/>
+    <hyperlink ref="D2" r:id="rId14" xr:uid="{D908A389-6872-41E0-B81F-166FB55D55A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/data/posts.xlsx
+++ b/data/posts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B056E9-781C-47E3-A731-FABE573545E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E49219-63E9-4F12-BCD4-DE29211C265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9230" yWindow="1310" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t>date</t>
   </si>
@@ -336,10 +336,16 @@
     <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses: paper in Trials</t>
   </si>
   <si>
-    <t>Confirmatory adaptive designs</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-clinicaltrial-activity-7356399592587894784-WvJW?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
+  </si>
+  <si>
+    <t>Confirmatory adaptive designs (Part 1): general comments</t>
+  </si>
+  <si>
+    <t>Confirmatory adaptive designs (Part 2): Does an adaptive design change POS?</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_biostatistics-adaptive-innovation-activity-7357467143770107904-z2iF?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAAAQJ2qsB_r_XsYhAPWyf_WQeC5V6NOcbIXo</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,691 +722,706 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>45868</v>
+        <v>45871</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>45855</v>
+        <v>45868</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>84</v>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45784</v>
+        <v>45855</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>96</v>
+      <c r="C4" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>45725</v>
+        <v>45784</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>45696</v>
+        <v>45725</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>45686</v>
+        <v>45696</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>45623</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>45584</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45568</v>
+        <v>45584</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>85</v>
+      <c r="C10" t="s">
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>82</v>
+      <c r="C11" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>45557</v>
+        <v>45565</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>45537</v>
+        <v>45557</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>45482</v>
+        <v>45490</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>45473</v>
+        <v>45482</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>45357</v>
+        <v>45443</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>45240</v>
+        <v>45352</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>45212</v>
+        <v>45240</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>45211</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>45212</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>45147</v>
+        <v>45211</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>45143</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
         <v>45119</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>45083</v>
+        <v>45112</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>45018</v>
+        <v>45082</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>44992</v>
+        <v>45014</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>44959</v>
+        <v>44992</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>44930</v>
+        <v>44959</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>44897</v>
+        <v>44930</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>44682</v>
+        <v>44897</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>44601</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>44725</v>
+        <v>44601</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>44723</v>
+        <v>44725</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>44326</v>
+        <v>44723</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>44148</v>
+        <v>44265</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
         <v>31</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
     </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D38">
-    <sortCondition ref="B18:B38"/>
-    <sortCondition descending="1" ref="A18:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:D39">
+    <sortCondition ref="B19:B39"/>
+    <sortCondition descending="1" ref="A19:A39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D33" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
-    <hyperlink ref="D7" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
-    <hyperlink ref="D6" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
-    <hyperlink ref="E4" r:id="rId12" xr:uid="{C474B74F-3E03-433F-BC35-18768486A4FB}"/>
-    <hyperlink ref="E3" r:id="rId13" xr:uid="{209BE10C-36A4-4475-BDA6-365C34A7A7B4}"/>
-    <hyperlink ref="D2" r:id="rId14" xr:uid="{D908A389-6872-41E0-B81F-166FB55D55A3}"/>
+    <hyperlink ref="D39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D43" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D34" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{FA3531C4-3B8B-4257-B20B-BB3BF511A818}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{461EAE59-6B89-4B06-BC7F-5D62D70EDCD6}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{9FC614FC-A94D-4784-8E8F-DFD619EA88C0}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{0B29772C-F7FE-40CC-A257-2848F4518174}"/>
+    <hyperlink ref="E5" r:id="rId12" xr:uid="{C474B74F-3E03-433F-BC35-18768486A4FB}"/>
+    <hyperlink ref="E4" r:id="rId13" xr:uid="{209BE10C-36A4-4475-BDA6-365C34A7A7B4}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{D908A389-6872-41E0-B81F-166FB55D55A3}"/>
+    <hyperlink ref="D2" r:id="rId15" xr:uid="{1BBDB9F5-EA33-4B8D-A13B-752105B1611A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>